--- a/Manuscript_Code/D_Feature_Comparisons/Output_FeatureComparison/Top50/50concat_filtered_03112025.xlsx
+++ b/Manuscript_Code/D_Feature_Comparisons/Output_FeatureComparison/Top50/50concat_filtered_03112025.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,54 +570,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>franzosa_ControlvsDisease_Age</t>
+          <t>franzosa_ControlvsCD_ConvCD</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="C8">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="F8">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="G8">
         <v>0.54</v>
       </c>
       <c r="H8">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>franzosa_ControlvsDisease_ConvDisease</t>
+          <t>franzosa_ControlvsDisease_Age</t>
         </is>
       </c>
       <c r="B9">
+        <v>0.04</v>
+      </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.02</v>
-      </c>
       <c r="E9">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="F9">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G9">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="H9">
         <v>0.58</v>
@@ -626,222 +626,222 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>franzosa_ControlvsUC_Age</t>
+          <t>franzosa_ControlvsDisease_ConvDisease</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0.02</v>
       </c>
       <c r="E10">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F10">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="G10">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>franzosa_ControlvsUC_Fp</t>
+          <t>franzosa_ControlvsUC_Age</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D11">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="F11">
+        <v>0.92</v>
+      </c>
+      <c r="G11">
         <v>0.62</v>
       </c>
-      <c r="G11">
-        <v>0.54</v>
-      </c>
       <c r="H11">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>yachida_age</t>
+          <t>franzosa_ControlvsUC_ConvUC</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E12">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="F12">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="G12">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="H12">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>yachida_gender</t>
+          <t>franzosa_ControlvsUC_Fp</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="C13">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="D13">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E13">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="H13">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>yachida_healthyvscancer</t>
+          <t>yachida_age</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C14">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D14">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E14">
+        <v>0.28</v>
+      </c>
+      <c r="F14">
+        <v>0.78</v>
+      </c>
+      <c r="G14">
+        <v>0.66</v>
+      </c>
+      <c r="H14">
         <v>0.52</v>
-      </c>
-      <c r="F14">
-        <v>0.88</v>
-      </c>
-      <c r="G14">
-        <v>0.42</v>
-      </c>
-      <c r="H14">
-        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>yachida_healthyvsearly</t>
+          <t>yachida_gender</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="C15">
+        <v>0.08</v>
+      </c>
+      <c r="D15">
         <v>0.06</v>
       </c>
-      <c r="D15">
-        <v>0.04</v>
-      </c>
       <c r="E15">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H15">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>yachida_healthyvsstageI_II</t>
+          <t>yachida_healthyvscancer</t>
         </is>
       </c>
       <c r="B16">
+        <v>0.02</v>
+      </c>
+      <c r="C16">
         <v>0.04</v>
       </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
       <c r="D16">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="E16">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="F16">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="G16">
+        <v>0.42</v>
+      </c>
+      <c r="H16">
         <v>0.4</v>
-      </c>
-      <c r="H16">
-        <v>0.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>yachida_healthyvsstageIII_IV</t>
+          <t>yachida_healthyvsearly</t>
         </is>
       </c>
       <c r="B17">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="D17">
         <v>0.04</v>
       </c>
       <c r="E17">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F17">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
         <v>0.52</v>
@@ -850,112 +850,168 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>wang_age</t>
+          <t>yachida_healthyvsstageI_II</t>
         </is>
       </c>
       <c r="B18">
         <v>0.04</v>
       </c>
       <c r="C18">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="E18">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="F18">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="G18">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="H18">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>wang_egfr</t>
+          <t>yachida_healthyvsstageIII_IV</t>
         </is>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C19">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="D19">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="F19">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="G19">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H19">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wang_studygroup</t>
+          <t>wang_age</t>
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C20">
         <v>0.02</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F20">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="G20">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wang_urea</t>
+          <t>wang_egfr</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="D21">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="E21">
         <v>0.38</v>
       </c>
       <c r="F21">
+        <v>0.96</v>
+      </c>
+      <c r="G21">
+        <v>0.6</v>
+      </c>
+      <c r="H21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>wang_studygroup</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.98</v>
+      </c>
+      <c r="G22">
+        <v>0.48</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>wang_urea</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>0.02</v>
+      </c>
+      <c r="C23">
+        <v>0.06</v>
+      </c>
+      <c r="D23">
+        <v>0.12</v>
+      </c>
+      <c r="E23">
+        <v>0.38</v>
+      </c>
+      <c r="F23">
         <v>0.8</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>0.54</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <v>0.48</v>
       </c>
     </row>
